--- a/results/robust_recourse_iterative/Main workbooks/example of recourse algo.xlsx
+++ b/results/robust_recourse_iterative/Main workbooks/example of recourse algo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.stud.iot.ntnu.no\Home\bendiw\Documents\GitHub\OilOpt\results\robust_recourse_iterative\Main workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arntgm\GitHub\OilOpt\results\robust_recourse_iterative\Main workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,26 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="114">
   <si>
     <t>72.984</t>
   </si>
   <si>
-    <t xml:space="preserve"> 47.067</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 47.84</t>
   </si>
   <si>
     <t xml:space="preserve"> 62.6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.34</t>
-  </si>
-  <si>
     <t>W1</t>
   </si>
   <si>
@@ -256,13 +246,133 @@
   </si>
   <si>
     <t>Change</t>
+  </si>
+  <si>
+    <t>53.43</t>
+  </si>
+  <si>
+    <t>Well priority list: .. .. .. .</t>
+  </si>
+  <si>
+    <t>-13.26</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>-18.57</t>
+  </si>
+  <si>
+    <t>Changes Available: 2</t>
+  </si>
+  <si>
+    <t>38.82</t>
+  </si>
+  <si>
+    <t>-23.79</t>
+  </si>
+  <si>
+    <t>103.98</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62.60</t>
+  </si>
+  <si>
+    <t>113.39</t>
+  </si>
+  <si>
+    <t>Changes Available: 1</t>
+  </si>
+  <si>
+    <t>30.78</t>
+  </si>
+  <si>
+    <t>-9.22</t>
+  </si>
+  <si>
+    <t>97.67</t>
+  </si>
+  <si>
+    <t>Action: change W7    [ 53.43 ---&gt; 30.17 ]</t>
+  </si>
+  <si>
+    <t>Action: change W6    [ 62.61 ---&gt; 38.82 ]</t>
+  </si>
+  <si>
+    <t>Result feasible</t>
+  </si>
+  <si>
+    <t>2366934.00</t>
+  </si>
+  <si>
+    <t>223487.85</t>
+  </si>
+  <si>
+    <t>222984.29</t>
+  </si>
+  <si>
+    <t>New State Chokes</t>
+  </si>
+  <si>
+    <t>Initial State Chokes</t>
+  </si>
+  <si>
+    <t>Suggested Chokes</t>
+  </si>
+  <si>
+    <t>Result infeasible  -  total gas constraint breached</t>
+  </si>
+  <si>
+    <t>236 694.00</t>
+  </si>
+  <si>
+    <t>231 247.11</t>
+  </si>
+  <si>
+    <t>223 487.85</t>
+  </si>
+  <si>
+    <t>230 391.54</t>
+  </si>
+  <si>
+    <t>222 984.29</t>
+  </si>
+  <si>
+    <t>223 209.92</t>
+  </si>
+  <si>
+    <t>Oil output</t>
+  </si>
+  <si>
+    <t>Expected gas output</t>
+  </si>
+  <si>
+    <t>Realized gas output</t>
+  </si>
+  <si>
+    <t>Action: change W3    [ 40.0 ---&gt; 30.78 ]</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Well Priority List Increase Choke</t>
+  </si>
+  <si>
+    <t>Well Priority List Decrease Choke</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,16 +388,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCDC9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1FFC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -427,15 +561,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -445,49 +628,206 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,6 +835,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFBCDC9"/>
+      <color rgb="FFC1FFC1"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -769,538 +1116,1457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:T63"/>
+  <dimension ref="A5:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71:L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="5" max="12" width="8.28515625" customWidth="1"/>
     <col min="14" max="14" width="13.140625" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="21" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" s="19"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="T9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="17"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="5"/>
+      <c r="T10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" s="19"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="5"/>
+      <c r="T11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="12"/>
-      <c r="S9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="5"/>
+      <c r="T12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-      <c r="S10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-      <c r="S11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="S12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
       <c r="I13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="J13" s="21"/>
       <c r="K13" s="19"/>
       <c r="L13" s="18"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="20" t="s">
+      <c r="N13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="23"/>
+      <c r="P13" s="28"/>
+      <c r="T13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="S13" s="5" t="s">
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="28"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="T15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="T16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="T17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="U17" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="T18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="T19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" s="5"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="55"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="36"/>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O32" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="6"/>
+    </row>
+    <row r="33" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q35" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="54"/>
+      <c r="S35" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="6"/>
+    </row>
+    <row r="36" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="41"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="R36" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="S36" s="63"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="9"/>
+    </row>
+    <row r="37" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="R37" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="S37" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="T37" s="75"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="5"/>
+    </row>
+    <row r="38" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q38" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="R38" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S38" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="T38" s="75"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="5"/>
+    </row>
+    <row r="39" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P39" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q39" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="R39" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S39" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="T39" s="75"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="5"/>
+    </row>
+    <row r="40" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="R40" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S40" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="T40" s="75"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="5"/>
+    </row>
+    <row r="41" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="O41" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="P41" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="R41" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="S41" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="T41" s="75"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>34</v>
+      </c>
+      <c r="O42" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q42" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="R42" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S42" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="T42" s="75"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="P43" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q43" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="R43" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="S43" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="T43" s="75"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="65"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+    </row>
+    <row r="45" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="O45" s="65"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="47"/>
+    </row>
+    <row r="46" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="N46" s="5"/>
+      <c r="O46" s="29"/>
+    </row>
+    <row r="47" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+    </row>
+    <row r="48" spans="4:25" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>36</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="55"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+    </row>
+    <row r="49" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>37</v>
+      </c>
+      <c r="O49" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="36"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+    </row>
+    <row r="50" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>38</v>
+      </c>
+      <c r="O50" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="36"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="29"/>
+    </row>
+    <row r="51" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="O51" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+    </row>
+    <row r="52" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O52" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+    </row>
+    <row r="53" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="O53" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+    </row>
+    <row r="54" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q54" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="55"/>
+      <c r="S54" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+    </row>
+    <row r="55" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>39</v>
+      </c>
+      <c r="O55" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="R55" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="S55" s="81"/>
+      <c r="V55" s="87"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+    </row>
+    <row r="56" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="P56" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q56" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="R56" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S56" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="V56" s="87"/>
+      <c r="W56" s="87"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+    </row>
+    <row r="57" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q57" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="R57" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S57" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29"/>
+    </row>
+    <row r="58" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q58" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="R58" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S58" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+    </row>
+    <row r="59" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>28</v>
+      </c>
+      <c r="O59" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="P59" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q59" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="R59" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S59" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29"/>
+    </row>
+    <row r="60" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O60" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="P60" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q60" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="R60" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="S60" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+    </row>
+    <row r="61" spans="9:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>40</v>
+      </c>
+      <c r="O61" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="P61" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="R61" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="S61" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="V61" s="87"/>
+      <c r="W61" s="87"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+    </row>
+    <row r="62" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>41</v>
+      </c>
+      <c r="O62" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="P62" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q62" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="R62" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="S62" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="V62" s="87"/>
+      <c r="W62" s="87"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+    </row>
+    <row r="63" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="65"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="47"/>
+      <c r="V63" s="87"/>
+      <c r="W63" s="87"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+    </row>
+    <row r="64" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="O64" s="65"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="47"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+    </row>
+    <row r="65" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="N65" s="5"/>
+      <c r="O65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+    </row>
+    <row r="66" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="N66" s="5"/>
+      <c r="O66" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P66" s="54"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="54"/>
+      <c r="S66" s="55"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+    </row>
+    <row r="67" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E67" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="40"/>
+      <c r="O67" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="36"/>
+    </row>
+    <row r="68" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E68" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="47">
+        <v>1</v>
+      </c>
+      <c r="G68" s="47">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I14" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="H68" s="47">
+        <v>3</v>
+      </c>
+      <c r="I68" s="47">
+        <v>4</v>
+      </c>
+      <c r="J68" s="47">
+        <v>5</v>
+      </c>
+      <c r="K68" s="47">
         <v>6</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="L68" s="43">
+        <v>7</v>
+      </c>
+      <c r="O68" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="36"/>
+    </row>
+    <row r="69" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E69" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="K69" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="L69" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="O69" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="P69" s="78"/>
+      <c r="Q69" s="66"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E70" s="33"/>
+      <c r="O70" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="P70" s="76"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E71" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="40"/>
+      <c r="O71" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P71" s="76"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E72" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="47">
+        <v>1</v>
+      </c>
+      <c r="G72" s="47">
+        <v>2</v>
+      </c>
+      <c r="H72" s="47">
+        <v>3</v>
+      </c>
+      <c r="I72" s="47">
+        <v>4</v>
+      </c>
+      <c r="J72" s="47">
+        <v>5</v>
+      </c>
+      <c r="K72" s="47">
+        <v>6</v>
+      </c>
+      <c r="L72" s="43">
+        <v>7</v>
+      </c>
+      <c r="O72" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q72" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="55"/>
+      <c r="S72" s="86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E73" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="L73" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="O73" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" s="67"/>
+      <c r="Q73" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="R73" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="S73" s="81"/>
+    </row>
+    <row r="74" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="O74" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="P74" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q74" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="R74" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S74" s="90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O75" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="P75" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q75" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="R75" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S75" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O76" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q76" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="R76" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="S76" s="60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="O77" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="P77" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q77" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="S15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="R77" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S77" s="60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="O78" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P78" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="S16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="5" t="s">
+      <c r="Q78" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="R78" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="S78" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="O79" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="P79" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q79" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="R79" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="S79" s="60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="O80" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P80" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="T19" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I63" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q80" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="R80" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="S80" s="61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O81" s="65"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="47"/>
+      <c r="S81" s="47"/>
+    </row>
+    <row r="82" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O82" s="65"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="47"/>
+      <c r="S82" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S8:T8"/>
+  <mergeCells count="35">
+    <mergeCell ref="E67:L67"/>
+    <mergeCell ref="E71:L71"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="O48:S48"/>
+    <mergeCell ref="O66:S66"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T8:U8"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A5:E5"/>
